--- a/medicine/Enfance/Pierre_Lepère/Pierre_Lepère.xlsx
+++ b/medicine/Enfance/Pierre_Lepère/Pierre_Lepère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Lep%C3%A8re</t>
+          <t>Pierre_Lepère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Lepère est un romancier, poète et essayiste français né à Lyon le 11 décembre 1944 et mort à Paris le 18 novembre 2023[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Lepère est un romancier, poète et essayiste français né à Lyon le 11 décembre 1944 et mort à Paris le 18 novembre 2023.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Lep%C3%A8re</t>
+          <t>Pierre_Lepère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étudiant à l'École normale des instituteurs, Pierre Lepère a eu comme professeur Philippe Léotard[2].
-Il a créé et dirige depuis septembre 2018 la collection « Les 4 saisons[3] » chez Z4 Éditions. Il est décédé le 18 novembre 2023 à Paris[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étudiant à l'École normale des instituteurs, Pierre Lepère a eu comme professeur Philippe Léotard.
+Il a créé et dirige depuis septembre 2018 la collection « Les 4 saisons » chez Z4 Éditions. Il est décédé le 18 novembre 2023 à Paris.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_Lep%C3%A8re</t>
+          <t>Pierre_Lepère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Antipodes, poèmes, Paris, Éditions Gallimard, coll. « Le Chemin », 1976, 102 p. (BNF 34695957)
 Création poétique et poésie : de l’aube de la Renaissance au crépuscule du romantisme, essai, Paris, Éditions Bordas, coll. « Littérature vivante », 1990, 127 p.  (ISBN 2-86311-200-7)
@@ -563,14 +579,14 @@
 Un couple désespéré, roman, Paris, Éditions de La Différence, coll. « Littérature », 2006, 287 p.  (ISBN 2-7291-1635-4)
 Cœur citadelle, poèmes, Paris, Éditions de La Différence, coll. « Clepsydre », 2008, 76 p.  (ISBN 978-2-7291-1761-0)
 La Folardie, roman, Paris, Éditions de La Différence, coll. « Littérature », 2009, 144 p.  (ISBN 978-2-7291-1810-5) [lire en ligne]
-Le Ministère des ombres, roman, Paris, Éditions de La Différence, coll. « Littérature », 2010, 256 p.  (ISBN 978-2-7291-1894-5)[5]
-Un prince doit venir, roman, Paris, Éditions de La Différence, coll. « Littérature », 2011, 288 p.  (ISBN 978-2-7291-1947-8)[6]
+Le Ministère des ombres, roman, Paris, Éditions de La Différence, coll. « Littérature », 2010, 256 p.  (ISBN 978-2-7291-1894-5)
+Un prince doit venir, roman, Paris, Éditions de La Différence, coll. « Littérature », 2011, 288 p.  (ISBN 978-2-7291-1947-8)
 Le Locataire de nulle part, poèmes, Paris, Éditions de La Différence, coll. « Clepsydre », 2013, 80 p.  (ISBN 978-2-7291-2041-2) [lire en ligne]
-Marat ne dort jamais, roman, Paris, Éditions de La Différence, coll. « Littérature », 2014, 384 p.  (ISBN 978-2-7291-2063-4)[7],[8]
-Les Roses noires de la Seine et Marne, roman, Paris, Éditions de La Différence, coll. « Littérature », 2016  (ISBN 978-2-7291-2158-7)[9]
+Marat ne dort jamais, roman, Paris, Éditions de La Différence, coll. « Littérature », 2014, 384 p.  (ISBN 978-2-7291-2063-4),
+Les Roses noires de la Seine et Marne, roman, Paris, Éditions de La Différence, coll. « Littérature », 2016  (ISBN 978-2-7291-2158-7)
 Gibier fantôme, roman, Z4 Éditions, 2018  (ISBN 978-0244378790)
 L'Assassin et son double, roman, Z4 Éditions, 2018  (ISBN 978-0244983376)
-L'Oiseleur, poèmes, Z4 Éditions, 2018  (ISBN 978-0244689032)[10]
+L'Oiseleur, poèmes, Z4 Éditions, 2018  (ISBN 978-0244689032)
 Le Démon des solitaires, roman, Z4 Éditions, 2019  (ISBN 978-2-490595341)
 Les amours circulaires, roman, Z4 Éditions, 2019  (ISBN 978-2-490595853)
 Presque un rêve, poèmes, Z4 Éditions, 2021  (ISBN 978-2-381130293)
